--- a/Data/MetaData.xlsx
+++ b/Data/MetaData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\Workspace\Repos\572Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tprestby\Documents\GitHub\572Lab1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2225E-AC2F-4B60-88FB-5E64994B9AD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="791"/>
   </bookViews>
   <sheets>
     <sheet name="National - web map &amp; download" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'National - Download Only'!$A$2:$F$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'National - web map &amp; download'!$A$1:$Q$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1497,7 +1496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2350,18 +2349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2454,33 +2441,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 1 2" xfId="10" xr:uid="{CDF1CAA1-3C2C-4437-9783-4055367A3C0D}"/>
-    <cellStyle name="Heading 2 2" xfId="9" xr:uid="{2715AD76-3916-43BB-83B6-FC1FB4B77787}"/>
+    <cellStyle name="Heading 1 2" xfId="10"/>
+    <cellStyle name="Heading 2 2" xfId="9"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="8" xr:uid="{33BFD9FD-81E1-42E2-9AC6-2FB1C5433AAD}"/>
-    <cellStyle name="Neutral 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="8"/>
+    <cellStyle name="Neutral 2" xfId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="12" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 11" xfId="24" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 12" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 6" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 7" xfId="11" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Normal 8" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 9" xfId="21" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Style 1" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Style 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 10" xfId="12"/>
+    <cellStyle name="Normal 11" xfId="24"/>
+    <cellStyle name="Normal 12" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="14"/>
+    <cellStyle name="Normal 4" xfId="15"/>
+    <cellStyle name="Normal 4 2" xfId="18"/>
+    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 5 2" xfId="20"/>
+    <cellStyle name="Normal 6" xfId="19"/>
+    <cellStyle name="Normal 7" xfId="11"/>
+    <cellStyle name="Normal 8" xfId="6"/>
+    <cellStyle name="Normal 9" xfId="21"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
+    <cellStyle name="Style 1" xfId="16"/>
+    <cellStyle name="Style 2" xfId="17"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2600,23 +2599,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2652,23 +2634,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2844,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -2852,30 +2817,28 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="74" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" style="16" customWidth="1"/>
-    <col min="6" max="9" width="3.7265625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="4.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="16" customWidth="1"/>
+    <col min="6" max="9" width="3.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="16" customWidth="1"/>
     <col min="11" max="11" width="20" style="30" customWidth="1"/>
-    <col min="12" max="12" width="33.54296875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" style="49" customWidth="1"/>
-    <col min="14" max="14" width="44.81640625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="32.7265625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" style="34" customWidth="1"/>
-    <col min="17" max="17" width="37.81640625" style="59" customWidth="1"/>
-    <col min="18" max="18" width="24.54296875" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="36" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" style="47" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="37.85546875" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="71" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="71" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>95</v>
       </c>
@@ -2928,7 +2891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>111</v>
       </c>
@@ -2971,301 +2934,301 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="91" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:17" s="87" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="86" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="75" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="91" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:17" s="87" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="86">
         <v>2010</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="91" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:17" s="87" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="86" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="O5" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="90">
+      <c r="P5" s="86">
         <v>2010</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="75" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="91" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:17" s="87" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="86" t="s">
+      <c r="J6" s="80"/>
+      <c r="K6" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="86">
         <v>2010</v>
       </c>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="75" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="91" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:17" s="87" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="100" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="O7" s="102" t="s">
+      <c r="O7" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="103">
+      <c r="P7" s="99">
         <v>2016</v>
       </c>
-      <c r="Q7" s="79" t="s">
+      <c r="Q7" s="75" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="110" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="s">
+    <row r="8" spans="1:17" s="106" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="106" t="s">
+      <c r="J8" s="80"/>
+      <c r="K8" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="105" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>485</v>
       </c>
@@ -3273,7 +3236,7 @@
   </sheetData>
   <conditionalFormatting sqref="A1:J1 L1:O1 A2:O1048576">
     <cfRule type="expression" priority="99">
-      <formula>XEE1&lt;&gt;#REF!</formula>
+      <formula>XDX1&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Q3">
@@ -3288,7 +3251,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
     <cfRule type="expression" priority="85">
-      <formula>XEO1&lt;&gt;#REF!</formula>
+      <formula>XEH1&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q1048576">
@@ -3302,7 +3265,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://edg.epa.gov/data/PUBLIC/ORD/ENVIROATLAS/NATIONAL/National_metrics_Nov2016_FGDB.zip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId1" display="https://edg.epa.gov/data/PUBLIC/ORD/ENVIROATLAS/NATIONAL/National_metrics_Nov2016_FGDB.zip"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3313,7 +3276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V174"/>
   <sheetViews>
@@ -3322,25 +3285,25 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7265625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3358,7 +3321,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>96</v>
       </c>
@@ -3378,7 +3341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>466</v>
       </c>
@@ -3398,7 +3361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>467</v>
       </c>
@@ -3418,7 +3381,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>468</v>
       </c>
@@ -3438,7 +3401,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>469</v>
       </c>
@@ -3458,7 +3421,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>470</v>
       </c>
@@ -3478,7 +3441,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>471</v>
       </c>
@@ -3498,7 +3461,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>472</v>
       </c>
@@ -3518,7 +3481,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>473</v>
       </c>
@@ -3538,7 +3501,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>474</v>
       </c>
@@ -3558,7 +3521,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>475</v>
       </c>
@@ -3578,7 +3541,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>476</v>
       </c>
@@ -3598,7 +3561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>477</v>
       </c>
@@ -3618,7 +3581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>478</v>
       </c>
@@ -3638,7 +3601,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>479</v>
       </c>
@@ -3658,7 +3621,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>480</v>
       </c>
@@ -3678,7 +3641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3661,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>26</v>
       </c>
@@ -3718,7 +3681,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>45</v>
       </c>
@@ -3738,7 +3701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>48</v>
       </c>
@@ -3758,7 +3721,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>50</v>
       </c>
@@ -3778,7 +3741,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>52</v>
       </c>
@@ -3798,7 +3761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>54</v>
       </c>
@@ -3818,7 +3781,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>56</v>
       </c>
@@ -3838,7 +3801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>58</v>
       </c>
@@ -3858,7 +3821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>60</v>
       </c>
@@ -3878,7 +3841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>62</v>
       </c>
@@ -3898,7 +3861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>456</v>
       </c>
@@ -3918,7 +3881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>457</v>
       </c>
@@ -3938,7 +3901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>68</v>
       </c>
@@ -3958,7 +3921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>70</v>
       </c>
@@ -3978,7 +3941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>72</v>
       </c>
@@ -3998,7 +3961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>74</v>
       </c>
@@ -4018,7 +3981,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>481</v>
       </c>
@@ -4038,7 +4001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>482</v>
       </c>
@@ -4058,7 +4021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>483</v>
       </c>
@@ -4078,7 +4041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>80</v>
       </c>
@@ -4098,7 +4061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>82</v>
       </c>
@@ -4118,7 +4081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>89</v>
       </c>
@@ -4138,7 +4101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>90</v>
       </c>
@@ -4158,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>93</v>
       </c>
@@ -4178,7 +4141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>156</v>
       </c>
@@ -4198,7 +4161,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>157</v>
       </c>
@@ -4218,7 +4181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>158</v>
       </c>
@@ -4238,7 +4201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>159</v>
       </c>
@@ -4258,7 +4221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>160</v>
       </c>
@@ -4278,7 +4241,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>161</v>
       </c>
@@ -4298,7 +4261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>162</v>
       </c>
@@ -4318,7 +4281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>163</v>
       </c>
@@ -4338,7 +4301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>164</v>
       </c>
@@ -4358,7 +4321,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>165</v>
       </c>
@@ -4378,7 +4341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>166</v>
       </c>
@@ -4398,7 +4361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>167</v>
       </c>
@@ -4418,7 +4381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>168</v>
       </c>
@@ -4438,7 +4401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>169</v>
       </c>
@@ -4458,7 +4421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
         <v>170</v>
       </c>
@@ -4478,7 +4441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>171</v>
       </c>
@@ -4498,7 +4461,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
         <v>173</v>
       </c>
@@ -4518,7 +4481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>175</v>
       </c>
@@ -4538,7 +4501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>176</v>
       </c>
@@ -4558,7 +4521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>177</v>
       </c>
@@ -4578,7 +4541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
         <v>179</v>
       </c>
@@ -4598,7 +4561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>180</v>
       </c>
@@ -4618,7 +4581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>458</v>
       </c>
@@ -4638,7 +4601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>459</v>
       </c>
@@ -4658,7 +4621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>460</v>
       </c>
@@ -4678,7 +4641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>461</v>
       </c>
@@ -4698,7 +4661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
         <v>462</v>
       </c>
@@ -4718,7 +4681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
         <v>464</v>
       </c>
@@ -4738,7 +4701,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>465</v>
       </c>
@@ -4758,7 +4721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>463</v>
       </c>
@@ -4778,7 +4741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
         <v>182</v>
       </c>
@@ -4798,7 +4761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
         <v>191</v>
       </c>
@@ -4818,7 +4781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
         <v>193</v>
       </c>
@@ -4838,7 +4801,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>195</v>
       </c>
@@ -4858,7 +4821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>197</v>
       </c>
@@ -4878,7 +4841,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>199</v>
       </c>
@@ -4898,7 +4861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
         <v>202</v>
       </c>
@@ -4918,7 +4881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>204</v>
       </c>
@@ -4938,7 +4901,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
         <v>206</v>
       </c>
@@ -4958,7 +4921,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>208</v>
       </c>
@@ -4978,7 +4941,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="39" t="s">
         <v>210</v>
       </c>
@@ -4998,7 +4961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="68" t="s">
         <v>428</v>
       </c>
@@ -5019,7 +4982,7 @@
       </c>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
         <v>429</v>
       </c>
@@ -5040,7 +5003,7 @@
       </c>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
         <v>430</v>
       </c>
@@ -5061,7 +5024,7 @@
       </c>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="68" t="s">
         <v>431</v>
       </c>
@@ -5082,7 +5045,7 @@
       </c>
       <c r="G87" s="34"/>
     </row>
-    <row r="88" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="68" t="s">
         <v>432</v>
       </c>
@@ -5103,7 +5066,7 @@
       </c>
       <c r="G88" s="34"/>
     </row>
-    <row r="89" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="68" t="s">
         <v>433</v>
       </c>
@@ -5124,7 +5087,7 @@
       </c>
       <c r="G89" s="34"/>
     </row>
-    <row r="90" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="68" t="s">
         <v>434</v>
       </c>
@@ -5145,7 +5108,7 @@
       </c>
       <c r="G90" s="34"/>
     </row>
-    <row r="91" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="68" t="s">
         <v>435</v>
       </c>
@@ -5166,7 +5129,7 @@
       </c>
       <c r="G91" s="34"/>
     </row>
-    <row r="92" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>452</v>
       </c>
@@ -5186,7 +5149,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>453</v>
       </c>
@@ -5206,7 +5169,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>454</v>
       </c>
@@ -5226,7 +5189,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="46"/>
     </row>
   </sheetData>
@@ -5259,22 +5222,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.81640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>96</v>
       </c>
@@ -5288,7 +5251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>212</v>
       </c>
@@ -5302,7 +5265,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>214</v>
       </c>
@@ -5316,7 +5279,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>216</v>
       </c>
@@ -5330,7 +5293,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
@@ -5344,7 +5307,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>220</v>
       </c>
@@ -5358,7 +5321,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>222</v>
       </c>
@@ -5372,7 +5335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>224</v>
       </c>
@@ -5386,7 +5349,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>226</v>
       </c>
@@ -5400,7 +5363,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>228</v>
       </c>
@@ -5414,7 +5377,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>230</v>
       </c>
@@ -5428,7 +5391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>232</v>
       </c>
@@ -5442,7 +5405,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>234</v>
       </c>
@@ -5456,7 +5419,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>236</v>
       </c>
@@ -5470,7 +5433,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>238</v>
       </c>
@@ -5484,7 +5447,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>240</v>
       </c>
@@ -5498,7 +5461,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>242</v>
       </c>
@@ -5512,7 +5475,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>244</v>
       </c>
@@ -5526,7 +5489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>246</v>
       </c>
@@ -5540,7 +5503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>248</v>
       </c>
@@ -5554,7 +5517,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>250</v>
       </c>
@@ -5568,7 +5531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>252</v>
       </c>
@@ -5582,7 +5545,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>254</v>
       </c>
@@ -5596,7 +5559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>256</v>
       </c>
@@ -5610,7 +5573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>258</v>
       </c>
@@ -5624,7 +5587,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>260</v>
       </c>
@@ -5638,7 +5601,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>262</v>
       </c>
@@ -5652,7 +5615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>264</v>
       </c>
@@ -5666,7 +5629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>266</v>
       </c>
@@ -5680,7 +5643,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>268</v>
       </c>
@@ -5694,7 +5657,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>270</v>
       </c>
@@ -5708,7 +5671,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>272</v>
       </c>
@@ -5722,7 +5685,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>274</v>
       </c>
@@ -5736,7 +5699,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>276</v>
       </c>
@@ -5750,7 +5713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>278</v>
       </c>
@@ -5764,7 +5727,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>280</v>
       </c>
@@ -5778,7 +5741,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>282</v>
       </c>
@@ -5792,7 +5755,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>284</v>
       </c>
@@ -5806,7 +5769,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>286</v>
       </c>
@@ -5820,7 +5783,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>288</v>
       </c>
@@ -5834,7 +5797,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>290</v>
       </c>
@@ -5848,7 +5811,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>292</v>
       </c>
@@ -5862,7 +5825,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>294</v>
       </c>
@@ -5876,7 +5839,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>296</v>
       </c>
@@ -5890,7 +5853,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>298</v>
       </c>
@@ -5904,7 +5867,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>300</v>
       </c>
@@ -5918,7 +5881,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>302</v>
       </c>
@@ -5932,7 +5895,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>304</v>
       </c>
@@ -5946,7 +5909,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>306</v>
       </c>
@@ -5960,7 +5923,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>308</v>
       </c>
@@ -5974,7 +5937,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>310</v>
       </c>
@@ -5988,7 +5951,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>312</v>
       </c>
@@ -6002,7 +5965,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>314</v>
       </c>
@@ -6016,7 +5979,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>316</v>
       </c>
@@ -6030,7 +5993,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>318</v>
       </c>
@@ -6044,7 +6007,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>320</v>
       </c>
@@ -6058,7 +6021,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>322</v>
       </c>
@@ -6072,7 +6035,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>324</v>
       </c>
@@ -6086,7 +6049,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>326</v>
       </c>
@@ -6100,7 +6063,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>328</v>
       </c>
@@ -6114,7 +6077,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>330</v>
       </c>
@@ -6128,7 +6091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>332</v>
       </c>
@@ -6142,7 +6105,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>334</v>
       </c>
@@ -6156,7 +6119,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>336</v>
       </c>
@@ -6170,7 +6133,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>338</v>
       </c>
@@ -6184,7 +6147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>340</v>
       </c>
@@ -6198,7 +6161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>342</v>
       </c>
@@ -6212,7 +6175,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>344</v>
       </c>
@@ -6226,7 +6189,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>346</v>
       </c>
@@ -6240,7 +6203,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>348</v>
       </c>
@@ -6254,7 +6217,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>350</v>
       </c>
@@ -6268,7 +6231,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>352</v>
       </c>
@@ -6282,7 +6245,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>354</v>
       </c>
@@ -6296,7 +6259,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>356</v>
       </c>
@@ -6310,7 +6273,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>358</v>
       </c>
@@ -6324,7 +6287,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>360</v>
       </c>
@@ -6338,7 +6301,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>362</v>
       </c>
@@ -6352,7 +6315,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>364</v>
       </c>
@@ -6366,7 +6329,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>366</v>
       </c>
@@ -6380,7 +6343,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>368</v>
       </c>
@@ -6394,7 +6357,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>370</v>
       </c>
@@ -6408,7 +6371,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>372</v>
       </c>
@@ -6422,7 +6385,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>374</v>
       </c>
@@ -6436,7 +6399,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>376</v>
       </c>
@@ -6450,7 +6413,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>378</v>
       </c>
@@ -6464,7 +6427,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>380</v>
       </c>
@@ -6478,7 +6441,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>382</v>
       </c>
@@ -6492,7 +6455,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>384</v>
       </c>
@@ -6506,7 +6469,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>386</v>
       </c>
@@ -6520,7 +6483,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>388</v>
       </c>
@@ -6534,7 +6497,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>390</v>
       </c>
@@ -6548,7 +6511,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>392</v>
       </c>
@@ -6562,7 +6525,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>395</v>
       </c>
@@ -6576,7 +6539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>397</v>
       </c>
@@ -6590,7 +6553,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>220</v>
       </c>
@@ -6604,7 +6567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>222</v>
       </c>
@@ -6618,7 +6581,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>398</v>
       </c>
@@ -6632,7 +6595,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>399</v>
       </c>
@@ -6646,7 +6609,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>401</v>
       </c>
@@ -6660,7 +6623,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>402</v>
       </c>
@@ -6674,7 +6637,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>403</v>
       </c>
@@ -6688,7 +6651,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>405</v>
       </c>
@@ -6702,7 +6665,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>407</v>
       </c>
@@ -6716,7 +6679,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>409</v>
       </c>
@@ -6730,7 +6693,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>409</v>
       </c>
@@ -6744,7 +6707,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>212</v>
       </c>
@@ -6758,7 +6721,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>214</v>
       </c>
@@ -6772,7 +6735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>216</v>
       </c>
@@ -6786,7 +6749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>218</v>
       </c>
@@ -6800,7 +6763,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>220</v>
       </c>
@@ -6814,7 +6777,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>224</v>
       </c>
@@ -6828,7 +6791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>222</v>
       </c>
@@ -6842,7 +6805,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>226</v>
       </c>
@@ -6856,7 +6819,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>228</v>
       </c>
@@ -6870,7 +6833,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>230</v>
       </c>
@@ -6884,7 +6847,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>232</v>
       </c>
@@ -6898,7 +6861,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>411</v>
       </c>
@@ -6912,7 +6875,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>236</v>
       </c>
@@ -6926,7 +6889,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>238</v>
       </c>
@@ -6940,7 +6903,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>240</v>
       </c>
@@ -6954,7 +6917,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>412</v>
       </c>
@@ -6968,7 +6931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>244</v>
       </c>
@@ -6982,7 +6945,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>246</v>
       </c>
@@ -6996,7 +6959,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>248</v>
       </c>
@@ -7010,7 +6973,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>250</v>
       </c>
@@ -7024,7 +6987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>252</v>
       </c>
@@ -7038,7 +7001,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>254</v>
       </c>
@@ -7052,7 +7015,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>256</v>
       </c>
@@ -7066,7 +7029,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>258</v>
       </c>
@@ -7080,7 +7043,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>260</v>
       </c>
@@ -7094,7 +7057,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>262</v>
       </c>
@@ -7108,7 +7071,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>264</v>
       </c>
@@ -7122,7 +7085,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>413</v>
       </c>
@@ -7136,7 +7099,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>268</v>
       </c>
@@ -7150,7 +7113,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>270</v>
       </c>
@@ -7164,7 +7127,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>272</v>
       </c>
@@ -7178,7 +7141,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>274</v>
       </c>
@@ -7192,7 +7155,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>276</v>
       </c>
@@ -7206,7 +7169,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>278</v>
       </c>
@@ -7220,7 +7183,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>280</v>
       </c>
@@ -7234,7 +7197,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>414</v>
       </c>
@@ -7248,7 +7211,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>415</v>
       </c>
@@ -7262,7 +7225,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>416</v>
       </c>
@@ -7276,7 +7239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>417</v>
       </c>
@@ -7290,7 +7253,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>290</v>
       </c>
@@ -7304,7 +7267,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>292</v>
       </c>
@@ -7318,7 +7281,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>294</v>
       </c>
@@ -7332,7 +7295,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>296</v>
       </c>
@@ -7346,7 +7309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>298</v>
       </c>
@@ -7360,7 +7323,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>300</v>
       </c>
@@ -7374,7 +7337,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>302</v>
       </c>
@@ -7388,7 +7351,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>304</v>
       </c>
@@ -7402,7 +7365,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>306</v>
       </c>
@@ -7416,7 +7379,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>308</v>
       </c>
@@ -7430,7 +7393,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>310</v>
       </c>
@@ -7444,7 +7407,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>312</v>
       </c>
@@ -7458,7 +7421,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>314</v>
       </c>
@@ -7472,7 +7435,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>316</v>
       </c>
@@ -7486,7 +7449,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>318</v>
       </c>
@@ -7500,7 +7463,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>320</v>
       </c>
@@ -7514,7 +7477,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>322</v>
       </c>
@@ -7528,7 +7491,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>324</v>
       </c>
@@ -7542,7 +7505,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>326</v>
       </c>
@@ -7556,7 +7519,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>328</v>
       </c>
@@ -7570,7 +7533,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>330</v>
       </c>
@@ -7584,7 +7547,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>332</v>
       </c>
@@ -7598,7 +7561,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>334</v>
       </c>
@@ -7612,7 +7575,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>336</v>
       </c>
@@ -7626,7 +7589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>338</v>
       </c>
@@ -7640,7 +7603,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>340</v>
       </c>
@@ -7654,7 +7617,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>342</v>
       </c>
@@ -7668,7 +7631,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>344</v>
       </c>
@@ -7682,7 +7645,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>346</v>
       </c>
@@ -7696,7 +7659,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>348</v>
       </c>
@@ -7710,7 +7673,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>350</v>
       </c>
@@ -7724,7 +7687,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>352</v>
       </c>
@@ -7738,7 +7701,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>354</v>
       </c>
@@ -7752,7 +7715,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>356</v>
       </c>
@@ -7766,7 +7729,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>358</v>
       </c>
@@ -7780,7 +7743,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>360</v>
       </c>
@@ -7794,7 +7757,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>362</v>
       </c>
@@ -7808,7 +7771,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>364</v>
       </c>
@@ -7822,7 +7785,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>366</v>
       </c>
@@ -7836,7 +7799,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>368</v>
       </c>
@@ -7850,7 +7813,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>370</v>
       </c>
@@ -7864,7 +7827,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>372</v>
       </c>
@@ -7878,7 +7841,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>374</v>
       </c>
@@ -7892,7 +7855,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>376</v>
       </c>
@@ -7906,7 +7869,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>378</v>
       </c>
@@ -7920,7 +7883,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>380</v>
       </c>
@@ -7934,7 +7897,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>382</v>
       </c>
@@ -7948,7 +7911,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>384</v>
       </c>
@@ -7962,7 +7925,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>386</v>
       </c>
@@ -7976,7 +7939,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>388</v>
       </c>
@@ -7990,7 +7953,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>390</v>
       </c>
@@ -8004,7 +7967,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
         <v>392</v>
       </c>
